--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.64</v>
+        <v>1.48</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.16</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.99</v>
+        <v>3.83</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.89</v>
+        <v>3.91</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:39</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.75</v>
+        <v>5.58</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.36</v>
+        <v>7.31</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Jedinstvo</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sutjeska</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>5.84</v>
+        <v>2.64</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.16</v>
+        <v>3.16</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>2.99</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.62</v>
+        <v>2.89</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:39</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>2.75</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:20</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Jedinstvo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Sutjeska</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>12/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>13/08/2023 19:20</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>13/08/2023 19:20</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>1.48</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>12/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>13/08/2023 19:59</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>12/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>13/08/2023 19:59</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>5.58</v>
-      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>7.31</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:20</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-sutjeska/YTMvEs5B/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.07</v>
+        <v>2.46</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.69</v>
+        <v>2.65</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.19</v>
+        <v>2.99</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.57</v>
+        <v>2.8</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.08</v>
+        <v>2.78</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-mornar-bar/bBjcWOKu/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-petrovac/KQv6U2kh/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.46</v>
+        <v>2.07</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.65</v>
+        <v>1.69</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.99</v>
+        <v>3.19</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.8</v>
+        <v>3.57</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.78</v>
+        <v>6.08</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-petrovac/KQv6U2kh/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-mornar-bar/bBjcWOKu/</t>
         </is>
       </c>
     </row>
@@ -4134,6 +4134,466 @@
       <c r="V40" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-sutjeska/ELgUKkIe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-decic/2szPtXvF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-rudar/KIpKsDP8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Jezero</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mornar Bar</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:46</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:46</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:46</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-mornar-bar/6FtGrgA2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45192.75</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Mladost DG</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>22/09/2023 11:41</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:04</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:26</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-mladost-dg/tYYSuifL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:00</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:00</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:00</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-petrovac/A7wXvB9R/</t>
         </is>
       </c>
     </row>

--- a/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
+++ b/2023/montenegro_prva-crnogorska-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.67</v>
+        <v>2.64</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 20:14</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.68</v>
+        <v>2.89</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 18:34</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.91</v>
+        <v>3.03</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>11/08/2023 17:42</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.01</v>
+        <v>2.89</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 20:25</t>
+          <t>12/08/2023 20:14</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-rudar/UeGmCLZN/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-arsenal-tivat/v7NzFNk5/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Arsenal Tivat</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.64</v>
+        <v>1.67</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:14</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.87</v>
+        <v>3.27</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.89</v>
+        <v>3.68</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 18:34</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.03</v>
+        <v>3.91</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>11/08/2023 17:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.89</v>
+        <v>5.01</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 20:14</t>
+          <t>12/08/2023 20:25</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-arsenal-tivat/v7NzFNk5/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/petrovac-rudar/UeGmCLZN/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Buducnost</t>
+          <t>Mladost DG</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.48</v>
+        <v>2.64</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>3.16</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.83</v>
+        <v>2.99</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.91</v>
+        <v>2.89</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:39</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>5.58</v>
+        <v>2.75</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>12/08/2023 09:12</t>
+          <t>13/08/2023 10:35</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>7.31</v>
+        <v>2.36</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 19:59</t>
+          <t>13/08/2023 19:49</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mladost DG</t>
+          <t>Buducnost</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.64</v>
+        <v>1.48</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.16</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.99</v>
+        <v>3.83</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.89</v>
+        <v>3.91</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:39</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.75</v>
+        <v>5.58</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>13/08/2023 10:35</t>
+          <t>12/08/2023 09:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.36</v>
+        <v>7.31</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 19:49</t>
+          <t>13/08/2023 19:59</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mladost-dg-decic/8nFiBukU/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-jezero/nXQrD1KH/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Decic</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.46</v>
+        <v>2.07</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.65</v>
+        <v>1.69</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.99</v>
+        <v>3.19</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.8</v>
+        <v>3.57</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.78</v>
+        <v>6.08</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 19:46</t>
+          <t>20/08/2023 18:23</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-petrovac/KQv6U2kh/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-mornar-bar/bBjcWOKu/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Decic</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.07</v>
+        <v>2.46</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.69</v>
+        <v>2.65</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.19</v>
+        <v>2.99</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.57</v>
+        <v>2.8</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>6.08</v>
+        <v>2.78</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 18:23</t>
+          <t>20/08/2023 19:46</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/decic-mornar-bar/bBjcWOKu/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jezero-petrovac/KQv6U2kh/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Petrovac</t>
+          <t>Mornar Bar</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.53</v>
+        <v>3.06</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.66</v>
+        <v>2.43</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:46</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:11</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.73</v>
+        <v>2.31</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>02/09/2023 05:42</t>
+          <t>02/09/2023 06:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>03/09/2023 16:41</t>
+          <t>03/09/2023 16:46</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-petrovac/f1rgTDAF/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-mornar-bar/8ptsWFQd/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mornar Bar</t>
+          <t>Petrovac</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.06</v>
+        <v>2.53</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.43</v>
+        <v>2.66</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:46</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:11</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.31</v>
+        <v>2.73</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>02/09/2023 06:12</t>
+          <t>02/09/2023 05:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>03/09/2023 16:46</t>
+          <t>03/09/2023 16:41</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/rudar-mornar-bar/8ptsWFQd/</t>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-petrovac/f1rgTDAF/</t>
         </is>
       </c>
     </row>
@@ -4594,6 +4594,466 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-petrovac/A7wXvB9R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45196.64583333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>26/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>27/09/2023 15:21</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>26/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>27/09/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>26/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>27/09/2023 15:21</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/arsenal-tivat-rudar/0xIBXS11/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45196.75</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Decic</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>26/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>27/09/2023 17:40</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>26/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>27/09/2023 17:40</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>26/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>27/09/2023 17:40</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/jedinstvo-decic/6FI7Y8ne/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45196.75</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Jezero</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>26/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>27/09/2023 17:31</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>26/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>27/09/2023 17:31</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>26/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>6</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>27/09/2023 17:43</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/sutjeska-jezero/vTGFWnH7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45196.77083333334</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Buducnost</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Mladost DG</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>26/09/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:09</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>26/09/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:09</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>26/09/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:09</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/buducnost-mladost-dg/fuF3ZlXl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>prva-crnogorska-liga</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45196.79166666666</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Mornar Bar</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>26/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:38</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>26/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:38</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>26/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:38</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/montenegro/prva-crnogorska-liga/mornar-bar-petrovac/CGPbzVHr/</t>
         </is>
       </c>
     </row>
